--- a/biology/Botanique/Rosa_minutifolia/Rosa_minutifolia.xlsx
+++ b/biology/Botanique/Rosa_minutifolia/Rosa_minutifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa minutifolia est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans le sous-genre Hesperhodos, originaire d'une aire très localisée en Amérique du Nord, dans la région de Basse-Californie (Mexique).
-C'est une espèce rare dans son aire d'origine et en danger d'extinction en Californie[1].
+C'est une espèce rare dans son aire d'origine et en danger d'extinction en Californie.
 Synonyme : Hesperhodos minutifolia Engelm.
 </t>
         </is>
@@ -513,12 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce rosier est un arbrisseau bas de moins de 75 cm de haut.
-Il se distingue par ses feuilles, les plus petites de tout le genre Rosa, d'où son nom spécifique de minutifolia. Les folioles n'ont que 3 à 7 mm de long[2].
+Il se distingue par ses feuilles, les plus petites de tout le genre Rosa, d'où son nom spécifique de minutifolia. Les folioles n'ont que 3 à 7 mm de long.
 Les fleurs, simples, de couleur rose plus ou moins foncé, ont moins de 2,5 cm de diamètre. Elles donnent des fruits très épineux de 5 mm de diamètre.
-Rosa minutifolia est cultivée dans les jardins comme plante ornementale[3].
+Rosa minutifolia est cultivée dans les jardins comme plante ornementale.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Étymologie et dénomination</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Rosa minutifolia était auparavant contesté, car certains pensaient qu'il appartenait à son propre genre, Hesperhodos. Cependant, le nom a depuis été résolu[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Rosa minutifolia était auparavant contesté, car certains pensaient qu'il appartenait à son propre genre, Hesperhodos. Cependant, le nom a depuis été résolu.
 </t>
         </is>
       </c>
